--- a/Experiment/results.xlsx
+++ b/Experiment/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\00_PERSONAL\School\MED4\P4\AudioPydub\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2C71A-2885-4D5C-B7F4-F55AD0E31CA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A79B5C-4800-466C-A471-71111726AE6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="without" sheetId="1" r:id="rId1"/>
@@ -434,9 +434,9 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1603,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218D1D54-EFBD-4495-8215-F9EAE7092C28}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Experiment/results.xlsx
+++ b/Experiment/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\00_PERSONAL\School\MED4\P4\AudioPydub\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A79B5C-4800-466C-A471-71111726AE6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5676CF-07C5-4B0C-8929-C05AE5871696}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="without" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="44">
   <si>
     <t>Timestamp</t>
   </si>
@@ -29,48 +29,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> [I like Karaoke]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I dislike singing]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I feel entertained]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I feel excited]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I do not fint karaoke amusing]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [The time goes very slow when i do karaoke]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I feel bored]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I think an option to add funny effects to the voice would make karaoke more enjoyable]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I like singing]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I prefer karaoke without any effects]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I quickly get exhausted by new technologies]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I do not like karaoke]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I feel the time flies when i do karaoke]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [I like exploring new technologies]</t>
-  </si>
-  <si>
     <t>Karoline</t>
   </si>
   <si>
@@ -116,12 +74,6 @@
     <t>Kati</t>
   </si>
   <si>
-    <t>Simon Hoe</t>
-  </si>
-  <si>
-    <t>Simon Moe</t>
-  </si>
-  <si>
     <t>Vincent Gadegaard</t>
   </si>
   <si>
@@ -149,13 +101,58 @@
     <t xml:space="preserve">Christian </t>
   </si>
   <si>
-    <t>Katrine</t>
-  </si>
-  <si>
-    <t>Simon Hoe (The other one)</t>
-  </si>
-  <si>
-    <t>Stewart (forgot last name)</t>
+    <t>Kathrine</t>
+  </si>
+  <si>
+    <t>[I like Karaoke]</t>
+  </si>
+  <si>
+    <t>[I dislike singing]</t>
+  </si>
+  <si>
+    <t>[I feel entertained]</t>
+  </si>
+  <si>
+    <t>[I do not find karaoke amusing]</t>
+  </si>
+  <si>
+    <t>[I feel excited]</t>
+  </si>
+  <si>
+    <t>[The time goes very slow when I do karaoke]</t>
+  </si>
+  <si>
+    <t>[I feel bored]</t>
+  </si>
+  <si>
+    <t>[I think an option to add funny effects to the voice would make karaoke more enjoyable]</t>
+  </si>
+  <si>
+    <t>[I like singing]</t>
+  </si>
+  <si>
+    <t>[I prefer karaoke without any effects]</t>
+  </si>
+  <si>
+    <t>[I quickly get exhausted by new technologies]</t>
+  </si>
+  <si>
+    <t>[I do not like karaoke]</t>
+  </si>
+  <si>
+    <t>[I feel the time flies when I do karaoke]</t>
+  </si>
+  <si>
+    <t>[I like exploring new technologies]</t>
+  </si>
+  <si>
+    <t>Simon Hoe1</t>
+  </si>
+  <si>
+    <t>Simon Hoe2</t>
+  </si>
+  <si>
+    <t>Simon Hoe3</t>
   </si>
 </sst>
 </file>
@@ -434,9 +431,9 @@
   </sheetPr>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -445,53 +442,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -499,49 +496,49 @@
         <v>43968.447641631945</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -549,49 +546,49 @@
         <v>43968.820619502316</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -599,49 +596,49 @@
         <v>43969.358219456015</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -649,49 +646,49 @@
         <v>43969.487436238429</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -699,49 +696,49 @@
         <v>43969.515631018519</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -749,49 +746,49 @@
         <v>43969.580046493051</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -799,49 +796,49 @@
         <v>43969.617201967594</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -849,49 +846,49 @@
         <v>43969.666605983795</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -899,49 +896,49 @@
         <v>43969.766384930554</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -949,49 +946,49 @@
         <v>43969.863967650468</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -999,49 +996,49 @@
         <v>43970.596122407413</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1049,49 +1046,49 @@
         <v>43970.598337013886</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1099,49 +1096,49 @@
         <v>43970.599840625</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1149,49 +1146,49 @@
         <v>43970.64238351852</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1199,49 +1196,49 @@
         <v>43970.680581527777</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1249,49 +1246,49 @@
         <v>43970.840287708328</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1299,49 +1296,49 @@
         <v>43970.857264247687</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1349,49 +1346,49 @@
         <v>43970.895192511569</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1399,49 +1396,49 @@
         <v>43971.351079756947</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1449,49 +1446,49 @@
         <v>43972.428337627316</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -1499,49 +1496,49 @@
         <v>43972.429127280091</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1549,49 +1546,49 @@
         <v>43972.49513325232</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1603,8 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218D1D54-EFBD-4495-8215-F9EAE7092C28}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1621,46 +1619,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,49 +1666,49 @@
         <v>43968.453539016205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,49 +1716,49 @@
         <v>43968.814259849532</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1768,49 +1766,49 @@
         <v>43969.350220601853</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,49 +1816,49 @@
         <v>43969.516058437497</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1868,49 +1866,49 @@
         <v>43969.519785405093</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,49 +1916,49 @@
         <v>43969.575267592591</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,49 +1966,49 @@
         <v>43969.620837094903</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,49 +2016,49 @@
         <v>43969.662882534722</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2068,49 +2066,49 @@
         <v>43969.765175787034</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,199 +2116,199 @@
         <v>43969.870219618053</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43970.615660833333</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43970.616718865742</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43970.620764884261</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>44</v>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2318,49 +2316,49 @@
         <v>43970.637940277782</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,49 +2366,49 @@
         <v>43970.677576759263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,49 +2416,49 @@
         <v>43970.83499398148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,49 +2466,49 @@
         <v>43970.857727870374</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2518,49 +2516,49 @@
         <v>43970.902881018519</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,49 +2566,49 @@
         <v>43971.344362673612</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2618,49 +2616,49 @@
         <v>43972.423040439811</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2668,49 +2666,49 @@
         <v>43972.433120034722</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2718,49 +2716,49 @@
         <v>43972.487091400464</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment/results.xlsx
+++ b/Experiment/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\00_PERSONAL\School\MED4\P4\AudioPydub\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5676CF-07C5-4B0C-8929-C05AE5871696}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB0A385-4646-47D7-9114-27988FE9E25D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="43">
   <si>
     <t>Timestamp</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Completely agree</t>
   </si>
   <si>
-    <t xml:space="preserve">Kathrine </t>
-  </si>
-  <si>
     <t>Bianka</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Sofia</t>
   </si>
   <si>
-    <t xml:space="preserve">Christian </t>
-  </si>
-  <si>
     <t>Kathrine</t>
   </si>
   <si>
@@ -153,6 +147,9 @@
   </si>
   <si>
     <t>Simon Hoe3</t>
+  </si>
+  <si>
+    <t>Christian</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B12:B14"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -449,46 +446,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -596,7 +593,7 @@
         <v>43969.358219456015</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -646,7 +643,7 @@
         <v>43969.487436238429</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -696,7 +693,7 @@
         <v>43969.515631018519</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -746,7 +743,7 @@
         <v>43969.580046493051</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -796,7 +793,7 @@
         <v>43969.617201967594</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -846,7 +843,7 @@
         <v>43969.666605983795</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
@@ -896,7 +893,7 @@
         <v>43969.766384930554</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
@@ -946,7 +943,7 @@
         <v>43969.863967650468</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -996,7 +993,7 @@
         <v>43970.596122407413</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1046,7 +1043,7 @@
         <v>43970.598337013886</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1096,7 +1093,7 @@
         <v>43970.599840625</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1146,7 +1143,7 @@
         <v>43970.64238351852</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1196,7 +1193,7 @@
         <v>43970.680581527777</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -1246,7 +1243,7 @@
         <v>43970.840287708328</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>3</v>
@@ -1296,7 +1293,7 @@
         <v>43970.857264247687</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>3</v>
@@ -1346,7 +1343,7 @@
         <v>43970.895192511569</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -1396,7 +1393,7 @@
         <v>43971.351079756947</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>3</v>
@@ -1446,7 +1443,7 @@
         <v>43972.428337627316</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1496,7 +1493,7 @@
         <v>43972.429127280091</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
@@ -1546,7 +1543,7 @@
         <v>43972.49513325232</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>3</v>
@@ -1602,7 +1599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,46 +1616,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1766,7 +1763,7 @@
         <v>43969.350220601853</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1816,7 +1813,7 @@
         <v>43969.516058437497</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -1866,7 +1863,7 @@
         <v>43969.519785405093</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1916,7 +1913,7 @@
         <v>43969.575267592591</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1966,7 +1963,7 @@
         <v>43969.620837094903</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2016,7 +2013,7 @@
         <v>43969.662882534722</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -2066,7 +2063,7 @@
         <v>43969.765175787034</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -2116,7 +2113,7 @@
         <v>43969.870219618053</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2166,7 +2163,7 @@
         <v>43970.615660833333</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -2216,7 +2213,7 @@
         <v>43970.616718865742</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -2266,7 +2263,7 @@
         <v>43970.620764884261</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -2316,7 +2313,7 @@
         <v>43970.637940277782</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -2366,7 +2363,7 @@
         <v>43970.677576759263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2416,7 +2413,7 @@
         <v>43970.83499398148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -2466,7 +2463,7 @@
         <v>43970.857727870374</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -2516,7 +2513,7 @@
         <v>43970.902881018519</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
@@ -2566,7 +2563,7 @@
         <v>43971.344362673612</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -2616,7 +2613,7 @@
         <v>43972.423040439811</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -2666,7 +2663,7 @@
         <v>43972.433120034722</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -2716,7 +2713,7 @@
         <v>43972.487091400464</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
